--- a/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3FB711-309B-4344-9123-A77243AC634A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF79ECB7-0F2B-4BE9-97CC-4E2F76296FEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
-    <sheet name="ログイン画面" sheetId="3" r:id="rId2"/>
-    <sheet name="ログイン画面　画面処理" sheetId="4" r:id="rId3"/>
-    <sheet name="ログイン画面　サーバー処理" sheetId="6" r:id="rId4"/>
+    <sheet name="メッセージ一覧" sheetId="8" r:id="rId2"/>
+    <sheet name="ログイン画面" sheetId="3" r:id="rId3"/>
+    <sheet name="ログイン画面　画面処理" sheetId="4" r:id="rId4"/>
+    <sheet name="ログイン画面　サーバー処理" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>・生産管理板へのログインと管理者のログインの二つのフォームを用意してそれぞれのログインを行う</t>
     <rPh sb="1" eb="3">
@@ -413,6 +414,30 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象シート</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ一覧シートを追加した</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1979,7 +2004,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -2026,10 +2051,16 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="6">
+        <v>43705</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -2548,11 +2579,432 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D24F55-44CE-4E7A-B926-A4B81AFC3D01}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.9140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.25" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="14"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="14"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="5"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="5"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="5"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="5"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="5"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="5"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="5"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC662184-8CA3-4DF0-93F1-7AF91F6262FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -2566,11 +3018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68495E-2E7F-4A23-96AD-8D728D45F7FD}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA9377-DA34-4F61-9576-B29B3376AD3D}">
   <dimension ref="B2:E15"/>
   <sheetViews>

--- a/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF79ECB7-0F2B-4BE9-97CC-4E2F76296FEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2892139-D484-4545-8F14-37948D72F50B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>・生産管理板へのログインと管理者のログインの二つのフォームを用意してそれぞれのログインを行う</t>
     <rPh sb="1" eb="3">
@@ -438,6 +438,179 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面全体</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインフォームの位置を横並びから縦並びに変更した</t>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨコナラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタンのデザインを変更した</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産管理板へのログインでラインＮＯが入力されていなかったら「ラインＮＯが入力されていません。」と表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産管理板へのログインで登録されていないラインＮＯを入力したら「登録されていないラインＮＯです。」と表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者画面へのログインで登録されていないＩＤを入力したら「登録されていないＩＤです。」と表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者画面へのログインでＩＤが入力されてなかったら「ＩＤが入力されていません。」と表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者画面へのログインでパスワードが登録されていなかったら「パスワードが登録されていません。」と表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者画面へのログインでパスワードが入力されていなかったら「パスワードが入力されていません。」と表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,22 +815,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57728</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>235948</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D4A112-7290-40A7-9950-AEEEAF419EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD54163F-B6CA-439D-A8C1-D808CAF51CF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,106 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57728" y="23091"/>
-          <a:ext cx="14707020" cy="8358909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>320556</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>473364</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8A7B15-5CCA-4BA9-9518-9AA7B064ED2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="40297" t="39565" r="38924" b="28376"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1641356" y="3331882"/>
-          <a:ext cx="4775608" cy="2678953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>519544</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8135B9B3-92A4-48E7-9A55-02C949F8A95D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="62012" t="40180" r="6241" b="28400"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6324601" y="3384175"/>
-          <a:ext cx="3440543" cy="2634131"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18669000" cy="10112375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,517 +864,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323273</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639331</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600364</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9B4105-D617-42CF-AC43-B6C00FD7F754}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8908473" y="3417454"/>
-          <a:ext cx="4899891" cy="2395681"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>管理者ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ああああああ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワード　：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>あああああああ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>173180</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>646545</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>54839</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD57517-9A0E-4734-9715-2653641ADAB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10739580" y="5317835"/>
-          <a:ext cx="1133765" cy="515504"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>48489</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>521854</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>10966</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044AE5AE-603F-494A-A43D-E1B141FB288A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3350489" y="5270499"/>
-          <a:ext cx="1133765" cy="518967"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>196273</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200605</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>184727</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF57AB9D-7AFF-424C-AFFE-813B152950A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11423073" y="4480791"/>
-          <a:ext cx="2630054" cy="257464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>210128</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198582</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54909BC9-BCFF-42E7-B10A-229011B87C7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11436928" y="4894118"/>
-          <a:ext cx="2630054" cy="260928"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>611911</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138547</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C5760A-48FE-46A4-B836-5211076EA45D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1727201" y="3605646"/>
-          <a:ext cx="4828310" cy="825501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>生産管理板ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>565728</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>126998</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
+      <xdr:rowOff>44738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1314,8 +888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2546928" y="4254498"/>
-          <a:ext cx="4844473" cy="307110"/>
+          <a:off x="7220240" y="4108737"/>
+          <a:ext cx="4826001" cy="300183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1409,16 +983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>417947</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>36942</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508867</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>637311</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13852</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>70141</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1433,8 +1007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10984347" y="4164442"/>
-          <a:ext cx="4842164" cy="307110"/>
+          <a:off x="7747867" y="7796930"/>
+          <a:ext cx="4826001" cy="300183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1528,16 +1102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>431802</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>27705</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>290</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>58012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>651166</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4615</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219655</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1552,8 +1126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10998202" y="4650505"/>
-          <a:ext cx="4842164" cy="307110"/>
+          <a:off x="7897381" y="8463103"/>
+          <a:ext cx="4826001" cy="300183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,94 +1182,6 @@
             </a:rPr>
             <a:t>パスワードが入力されていません。</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>450271</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>41545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE8858-9A4E-4441-8E4B-FBC295819DC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752271" y="4657438"/>
-          <a:ext cx="1773383" cy="337107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>L-001</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2003,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C14437-4FE1-4CA3-B519-BEBFD716E4BB}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -2066,19 +1552,35 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="B5" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
@@ -2582,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D24F55-44CE-4E7A-B926-A4B81AFC3D01}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -2618,43 +2120,67 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
@@ -3003,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC662184-8CA3-4DF0-93F1-7AF91F6262FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>

--- a/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2892139-D484-4545-8F14-37948D72F50B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B790CE86-2B9E-4547-9104-EDB5FDEB96A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>・生産管理板へのログインと管理者のログインの二つのフォームを用意してそれぞれのログインを行う</t>
     <rPh sb="1" eb="3">
@@ -325,22 +325,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>→　「パスワードを入力してください。」と入力フォームの上に表示する</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン画面　サーバー処理に関するメモ</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -610,6 +594,236 @@
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力エラー表示の配置と文面を変更した</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→　「ログインＩＤが入力されていません。」と入力フォームの上に表示する</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→　「パスワードが入力されていません。」と入力フォームの上に表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインIDが入力されていない状態で「ログイン」ボタンを押す</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインＩＤ・パスワードが入力されていない状態で「ログイン」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→　「ログインＩＤとパスワードが入力されていません。」</t>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者画面へのログインでログインＩＤとパスワードが入力されてなかったら「ログインＩＤとパスワードが入力されていません。」と表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインＮＯが5文字以外で入力された状態で「ログイン」ボタンを押す</t>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→　「ラインＮＯは5文字で入力してください。」と入力フォームの上に表示する</t>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産管理板へのログインでラインＮＯが5文字で入力されていなかったら「ラインＮＯは5文字で入力してください。」と表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力エラーの表示項目を追加した（入力制限）</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインＮＯが半角以外で入力された状態で「ログイン」ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→　「ラインＮＯは半角で入力してください。」と入力フォームの上に表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -816,14 +1030,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>92169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,8 +1066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18669000" cy="10112375"/>
+          <a:off x="0" y="303283"/>
+          <a:ext cx="18576119" cy="10261647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,16 +1078,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>639331</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67828</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>200605</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44738</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>616045</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -888,8 +1102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7220240" y="4108737"/>
-          <a:ext cx="4826001" cy="300183"/>
+          <a:off x="4468286" y="4465440"/>
+          <a:ext cx="10743281" cy="358665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,7 +1188,55 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>が入力されていません。</a:t>
+            <a:t>が入力されていません。　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>or  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ラインＮＯは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文字で入力してください。　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>or  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ラインＮＯは半角で入力してください。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -985,14 +1247,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>508867</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38385</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>70141</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>15295</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1007,8 +1269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7747867" y="7796930"/>
-          <a:ext cx="4826001" cy="300183"/>
+          <a:off x="7806628" y="7478310"/>
+          <a:ext cx="4868737" cy="299149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,14 +1366,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>290</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58012</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219655</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>34922</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>148653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1126,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7897381" y="8463103"/>
-          <a:ext cx="4826001" cy="300183"/>
+          <a:off x="7961484" y="7744355"/>
+          <a:ext cx="4863395" cy="299149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,6 +1443,77 @@
               </a:solidFill>
             </a:rPr>
             <a:t>パスワードが入力されていません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398059</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>113732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622766</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BE5D5C-CD22-4533-9B6D-13FE51644366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8359253" y="8008583"/>
+          <a:ext cx="4868737" cy="299149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインＩＤとパスワードが入力されていません。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1489,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C14437-4FE1-4CA3-B519-BEBFD716E4BB}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -1505,19 +1838,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1530,7 +1863,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1541,11 +1874,11 @@
         <v>43705</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1556,13 +1889,13 @@
         <v>43714</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1573,32 +1906,48 @@
         <v>43714</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
@@ -2082,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D24F55-44CE-4E7A-B926-A4B81AFC3D01}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" activeCellId="1" sqref="C5 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -2098,13 +2447,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2113,7 +2462,7 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2121,10 +2470,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2132,119 +2481,129 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
       <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="14">
         <v>13</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
-        <v>14</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
-        <v>15</v>
+      <c r="A16" s="14">
+        <v>14</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
     </row>
@@ -2261,7 +2620,7 @@
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
@@ -2276,12 +2635,12 @@
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5"/>
@@ -2369,29 +2728,29 @@
       <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="14"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="12"/>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="14"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="15"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="12"/>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="5"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5"/>
@@ -2406,12 +2765,12 @@
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5"/>
@@ -2421,7 +2780,7 @@
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5"/>
@@ -2431,7 +2790,7 @@
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5"/>
@@ -2517,6 +2876,16 @@
       <c r="A72" s="5"/>
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="5"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2529,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC662184-8CA3-4DF0-93F1-7AF91F6262FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView topLeftCell="A30" zoomScale="67" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC48" sqref="AC48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -2546,62 +2915,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68495E-2E7F-4A23-96AD-8D728D45F7FD}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2612,17 +3041,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA9377-DA34-4F61-9576-B29B3376AD3D}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="D14" sqref="D14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -2640,16 +3069,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>9</v>
@@ -2663,16 +3082,6 @@
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B790CE86-2B9E-4547-9104-EDB5FDEB96A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AE76EB-A0FD-4F9B-8378-5729D42CADFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>・生産管理板へのログインと管理者のログインの二つのフォームを用意してそれぞれのログインを行う</t>
     <rPh sb="1" eb="3">
@@ -825,6 +825,46 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・表示されている画像にハイパーリンクを付与する</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク　→　"login.html"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示されている画像</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示されている画像にハイパーリンクを付与した</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1030,14 +1070,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142164</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>92169</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>111642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1080,13 +1120,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>487689</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>115216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>616045</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>151642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1247,13 +1287,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>508867</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>70141</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>43728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1366,13 +1406,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>290</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>10624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219655</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>148653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1453,13 +1493,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>398059</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>113732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>622766</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>90642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,6 +1554,180 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ログインＩＤとパスワードが入力されていません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>265545</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 円形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F12247-89A3-4CBB-A644-749AF1C4E988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923636" y="992910"/>
+          <a:ext cx="2586182" cy="427182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16957"/>
+            <a:gd name="adj2" fmla="val -100577"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リンク：「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login.html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296107</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 円形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82662B7B-70D9-431A-B935-D4B0A2AB9452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5555401" y="1246910"/>
+          <a:ext cx="2583465" cy="432615"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59095"/>
+            <a:gd name="adj2" fmla="val 68654"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リンク：「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login.html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1823,7 +2037,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -1953,10 +2167,18 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
@@ -2898,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC662184-8CA3-4DF0-93F1-7AF91F6262FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="67" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC48" sqref="AC48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -2915,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68495E-2E7F-4A23-96AD-8D728D45F7FD}">
-  <dimension ref="B2:E28"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M24" sqref="M24:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2935,101 +3157,111 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" t="s">
-        <v>4</v>
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" t="s">
-        <v>47</v>
+      <c r="D11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" t="s">
-        <v>51</v>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3044,7 +3276,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F15"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AE76EB-A0FD-4F9B-8378-5729D42CADFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA16DF5-A4B0-46D0-A799-B8D0C26BBA42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>・生産管理板へのログインと管理者のログインの二つのフォームを用意してそれぞれのログインを行う</t>
     <rPh sb="1" eb="3">
@@ -856,14 +856,50 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>表示されている画像にハイパーリンクを付与した</t>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産管理板へのログインボタン</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産管理板へのログインボタンにハイパーリンク（pcbd.html)を付与した</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示されている画像にハイパーリンク（login.html)を付与した</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="30" eb="32">
       <t>フヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2036,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C14437-4FE1-4CA3-B519-BEBFD716E4BB}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -2177,17 +2213,25 @@
         <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="6">
+        <v>43718</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
